--- a/biology/Histoire de la zoologie et de la botanique/Johann_Büttikofer/Johann_Büttikofer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Büttikofer/Johann_Büttikofer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_B%C3%BCttikofer</t>
+          <t>Johann_Büttikofer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Büttikofer (1850-1927) est un zoologiste suisse.
 Il est né à Ranflüh dans la vallée d'Emmental et a étudié la biologie à Berne. En 1879, il rejoint l'équipe du « Royal Zoological Museum » de Leyde, dont il est conservateur de 1884 à 1897.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_B%C3%BCttikofer</t>
+          <t>Johann_Büttikofer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mededeelingen over Liberia. Resultaten van eene onderzoekingsreis door J. Büttikofer en C.F. Sala in de jaren 1879 - 1882, (1883)
 Reisebilder aus Liberia: Resultate geographischer, naturwissenschaftlicher und ethnographischer Untersuchungen während der Jahre 1879-1882 und 1886-1887, 1890.</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_B%C3%BCttikofer</t>
+          <t>Johann_Büttikofer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de Wikipédia en langue anglaise.</t>
         </is>
